--- a/ごいぱちステージ草案(ネタバレ注意（）).xlsx
+++ b/ごいぱちステージ草案(ネタバレ注意（）).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakos\Desktop\DDDDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F3D09C-5302-4E7F-9EAB-28C4E004CDA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D0D910-E42C-4D6E-A116-4CAF29A51606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="64">
   <si>
     <t>モード</t>
     <phoneticPr fontId="1"/>
@@ -400,6 +400,26 @@
   </si>
   <si>
     <t>しりとり5文字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇ん〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇A〇A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇お〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇ー〇ー〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はな〇〇〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -802,13 +822,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L219" sqref="L219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="11.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.19921875" bestFit="1" customWidth="1"/>
@@ -1251,6 +1271,9 @@
       <c r="F22" t="s">
         <v>55</v>
       </c>
+      <c r="G22">
+        <v>120</v>
+      </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="5">
@@ -1305,6 +1328,9 @@
       <c r="E25" t="s">
         <v>1</v>
       </c>
+      <c r="G25">
+        <v>240</v>
+      </c>
       <c r="I25" t="s">
         <v>57</v>
       </c>
@@ -1313,32 +1339,80 @@
       <c r="B26" s="5">
         <v>25</v>
       </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
       <c r="E26" t="s">
         <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26">
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="5">
         <v>26</v>
       </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
       <c r="E27" t="s">
         <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27">
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="5">
         <v>27</v>
       </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
       <c r="E28" t="s">
         <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28">
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="5">
         <v>28</v>
       </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
       <c r="E29" t="s">
         <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29">
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="2:10">
@@ -3887,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="2:5">
+    <row r="321" spans="2:6">
       <c r="B321" s="5">
         <v>320</v>
       </c>
@@ -3895,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="2:5">
+    <row r="322" spans="2:6">
       <c r="B322" s="5">
         <v>321</v>
       </c>
@@ -3903,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="2:5">
+    <row r="323" spans="2:6">
       <c r="B323" s="5">
         <v>322</v>
       </c>
@@ -3911,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="2:5">
+    <row r="324" spans="2:6">
       <c r="B324" s="5">
         <v>323</v>
       </c>
@@ -3919,15 +3993,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="2:5">
+    <row r="325" spans="2:6">
       <c r="B325" s="5">
         <v>324</v>
       </c>
+      <c r="C325" t="s">
+        <v>23</v>
+      </c>
+      <c r="D325">
+        <v>5</v>
+      </c>
       <c r="E325" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="2:5">
+      <c r="F325" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="326" spans="2:6">
       <c r="B326" s="5">
         <v>325</v>
       </c>
@@ -3935,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="2:5">
+    <row r="327" spans="2:6">
       <c r="B327" s="5">
         <v>326</v>
       </c>
@@ -3943,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="2:5">
+    <row r="328" spans="2:6">
       <c r="B328" s="5">
         <v>327</v>
       </c>
@@ -3951,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="2:5">
+    <row r="329" spans="2:6">
       <c r="B329" s="5">
         <v>328</v>
       </c>
@@ -3959,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="2:5">
+    <row r="330" spans="2:6">
       <c r="B330" s="5">
         <v>329</v>
       </c>
@@ -3967,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="2:5">
+    <row r="331" spans="2:6">
       <c r="B331" s="5">
         <v>330</v>
       </c>
@@ -3975,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="2:5">
+    <row r="332" spans="2:6">
       <c r="B332" s="5">
         <v>331</v>
       </c>
@@ -3983,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="2:5">
+    <row r="333" spans="2:6">
       <c r="B333" s="5">
         <v>332</v>
       </c>
@@ -3991,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="2:5">
+    <row r="334" spans="2:6">
       <c r="B334" s="5">
         <v>333</v>
       </c>
@@ -4005,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="2:5">
+    <row r="335" spans="2:6">
       <c r="B335" s="5">
         <v>334</v>
       </c>
@@ -4013,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="2:5">
+    <row r="336" spans="2:6">
       <c r="B336" s="5">
         <v>335</v>
       </c>
@@ -5747,7 +5830,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:J522" xr:uid="{309A5490-6EAE-4586-A520-B31E84DCE535}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J522">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J521">
       <sortCondition ref="B2:B522"/>
     </sortState>
   </autoFilter>

--- a/ごいぱちステージ草案(ネタバレ注意（）).xlsx
+++ b/ごいぱちステージ草案(ネタバレ注意（）).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakos\Desktop\DDDDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D0D910-E42C-4D6E-A116-4CAF29A51606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56D3D98-BE8C-4372-BF8D-FF4A09DC5E0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>っ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ん</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -420,6 +416,13 @@
   </si>
   <si>
     <t>はな〇〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>う段</t>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -822,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L219" sqref="L219"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -961,7 +964,7 @@
         <v>150</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -992,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -1012,7 +1015,7 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
@@ -1021,7 +1024,7 @@
         <v>150</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -1038,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11">
         <v>150</v>
@@ -1049,7 +1052,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1058,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12">
         <v>150</v>
@@ -1069,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1098,7 +1101,7 @@
         <v>120</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -1106,7 +1109,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -1115,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" s="3">
         <v>240</v>
@@ -1140,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16">
         <v>180</v>
@@ -1154,7 +1157,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1163,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17">
         <v>180</v>
@@ -1174,7 +1177,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
@@ -1206,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19">
         <v>150</v>
@@ -1232,7 +1235,7 @@
         <v>150</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -1246,10 +1249,10 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
         <v>53</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
       </c>
       <c r="G21">
         <v>120</v>
@@ -1269,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>120</v>
@@ -1280,7 +1283,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -1289,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>150</v>
@@ -1300,7 +1303,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -1309,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24">
         <v>150</v>
@@ -1320,7 +1323,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1332,7 +1335,7 @@
         <v>240</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -1340,7 +1343,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1349,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26">
         <v>150</v>
@@ -1360,7 +1363,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1369,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27">
         <v>180</v>
@@ -1389,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G28">
         <v>180</v>
@@ -1400,7 +1403,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -1409,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G29">
         <v>180</v>
@@ -1436,7 +1439,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="3">
         <v>3</v>
@@ -1445,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" s="3">
         <v>150</v>
@@ -1471,7 +1474,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1480,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34">
         <v>180</v>
@@ -1527,7 +1530,7 @@
         <v>120</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -1591,7 +1594,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1909,7 +1912,7 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D85">
         <v>4</v>
@@ -1971,7 +1974,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D92" s="3">
         <v>4</v>
@@ -1980,17 +1983,17 @@
         <v>1</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G92" s="3">
         <v>240</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="2:10">
@@ -2075,7 +2078,7 @@
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
       <c r="J101" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="2:10">
@@ -2251,7 +2254,7 @@
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D123">
         <v>5</v>
@@ -2260,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G123">
         <v>240</v>
@@ -2375,7 +2378,7 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D137">
         <v>4</v>
@@ -2384,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G137">
         <v>240</v>
@@ -2451,7 +2454,7 @@
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D145">
         <v>4</v>
@@ -2460,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G145">
         <v>240</v>
@@ -2519,7 +2522,7 @@
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D152">
         <v>5</v>
@@ -2528,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G152">
         <v>240</v>
@@ -2547,7 +2550,7 @@
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D154">
         <v>3</v>
@@ -2633,7 +2636,7 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D164">
         <v>5</v>
@@ -2815,7 +2818,7 @@
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D186">
         <v>5</v>
@@ -2824,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="187" spans="2:6">
@@ -2928,7 +2931,7 @@
         <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D199">
         <v>4</v>
@@ -2963,7 +2966,7 @@
       <c r="H201" s="8"/>
       <c r="I201" s="8"/>
       <c r="J201" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="202" spans="2:10">
@@ -2987,7 +2990,7 @@
         <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D204">
         <v>6</v>
@@ -3161,7 +3164,7 @@
         <v>224</v>
       </c>
       <c r="C225" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D225">
         <v>3</v>
@@ -3367,7 +3370,7 @@
         <v>249</v>
       </c>
       <c r="C250" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D250">
         <v>4</v>
@@ -3685,7 +3688,7 @@
         <v>288</v>
       </c>
       <c r="C289" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D289">
         <v>6</v>
@@ -3800,7 +3803,7 @@
       <c r="H301" s="8"/>
       <c r="I301" s="8"/>
       <c r="J301" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="302" spans="2:10">
@@ -3896,7 +3899,7 @@
         <v>312</v>
       </c>
       <c r="C313" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D313">
         <v>5</v>
@@ -3998,7 +4001,7 @@
         <v>324</v>
       </c>
       <c r="C325" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D325">
         <v>5</v>
@@ -4007,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="F325" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="326" spans="2:6">
@@ -4079,7 +4082,7 @@
         <v>333</v>
       </c>
       <c r="C334" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D334">
         <v>8</v>
@@ -4229,7 +4232,7 @@
         <v>351</v>
       </c>
       <c r="C352" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D352">
         <v>4</v>
@@ -4467,7 +4470,7 @@
         <v>380</v>
       </c>
       <c r="C381" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D381">
         <v>5</v>
@@ -4617,7 +4620,7 @@
         <v>398</v>
       </c>
       <c r="C399" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D399">
         <v>5</v>
@@ -4626,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="F399" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="400" spans="2:6">
@@ -4642,7 +4645,7 @@
         <v>400</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D401" s="8">
         <v>15</v>
@@ -4655,7 +4658,7 @@
       <c r="H401" s="8"/>
       <c r="I401" s="8"/>
       <c r="J401" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="402" spans="2:10">
@@ -4983,7 +4986,7 @@
         <v>441</v>
       </c>
       <c r="C442" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D442">
         <v>5</v>
@@ -5237,7 +5240,7 @@
         <v>472</v>
       </c>
       <c r="C473" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D473">
         <v>7</v>
@@ -5480,7 +5483,7 @@
       <c r="H501" s="8"/>
       <c r="I501" s="8"/>
       <c r="J501" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="502" spans="2:10">
@@ -5497,7 +5500,7 @@
       <c r="H502" s="10"/>
       <c r="I502" s="10"/>
       <c r="J502" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="503" spans="2:10">
@@ -5514,7 +5517,7 @@
       <c r="H503" s="10"/>
       <c r="I503" s="10"/>
       <c r="J503" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="504" spans="2:10">
@@ -5531,7 +5534,7 @@
       <c r="H504" s="10"/>
       <c r="I504" s="10"/>
       <c r="J504" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="505" spans="2:10">
@@ -5548,7 +5551,7 @@
       <c r="H505" s="10"/>
       <c r="I505" s="10"/>
       <c r="J505" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="506" spans="2:10">
@@ -5556,7 +5559,7 @@
         <v>505</v>
       </c>
       <c r="C506" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D506" s="10">
         <v>10</v>
@@ -5569,7 +5572,7 @@
       <c r="H506" s="10"/>
       <c r="I506" s="10"/>
       <c r="J506" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="507" spans="2:10">
@@ -5586,7 +5589,7 @@
       <c r="H507" s="10"/>
       <c r="I507" s="10"/>
       <c r="J507" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="508" spans="2:10">
@@ -5603,7 +5606,7 @@
       <c r="H508" s="10"/>
       <c r="I508" s="10"/>
       <c r="J508" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="509" spans="2:10">
@@ -5620,7 +5623,7 @@
       <c r="H509" s="10"/>
       <c r="I509" s="10"/>
       <c r="J509" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="510" spans="2:10">
@@ -5637,7 +5640,7 @@
       <c r="H510" s="10"/>
       <c r="I510" s="10"/>
       <c r="J510" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="511" spans="2:10">
@@ -5654,7 +5657,7 @@
       <c r="H511" s="10"/>
       <c r="I511" s="10"/>
       <c r="J511" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="512" spans="2:10">
@@ -5671,7 +5674,7 @@
       <c r="H512" s="10"/>
       <c r="I512" s="10"/>
       <c r="J512" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="513" spans="2:10">
@@ -5679,7 +5682,7 @@
         <v>512</v>
       </c>
       <c r="C513" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D513" s="10">
         <v>8</v>
@@ -5692,7 +5695,7 @@
       <c r="H513" s="10"/>
       <c r="I513" s="10"/>
       <c r="J513" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="514" spans="2:10">
@@ -5709,7 +5712,7 @@
       <c r="H514" s="10"/>
       <c r="I514" s="10"/>
       <c r="J514" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="515" spans="2:10">
@@ -5726,7 +5729,7 @@
       <c r="H515" s="10"/>
       <c r="I515" s="10"/>
       <c r="J515" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="516" spans="2:10">
@@ -5743,7 +5746,7 @@
       <c r="H516" s="10"/>
       <c r="I516" s="10"/>
       <c r="J516" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="517" spans="2:10">
@@ -5760,7 +5763,7 @@
       <c r="H517" s="10"/>
       <c r="I517" s="10"/>
       <c r="J517" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="518" spans="2:10">
@@ -5777,7 +5780,7 @@
       <c r="H518" s="10"/>
       <c r="I518" s="10"/>
       <c r="J518" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="519" spans="2:10">
@@ -5785,7 +5788,7 @@
         <v>518</v>
       </c>
       <c r="C519" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D519" s="8">
         <v>30</v>
@@ -5800,12 +5803,12 @@
       <c r="H519" s="8"/>
       <c r="I519" s="8"/>
       <c r="J519" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="520" spans="2:10">
       <c r="B520" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C520" t="s">
         <v>0</v>
@@ -5822,7 +5825,7 @@
         <v>4</v>
       </c>
       <c r="I520" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J520" t="s">
         <v>5</v>

--- a/ごいぱちステージ草案(ネタバレ注意（）).xlsx
+++ b/ごいぱちステージ草案(ネタバレ注意（）).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakos\Desktop\DDDDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56D3D98-BE8C-4372-BF8D-FF4A09DC5E0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9F600D-B30C-45F1-94A2-D8FEB1C004B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="1596" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="64">
   <si>
     <t>モード</t>
     <phoneticPr fontId="1"/>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J520"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A385" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J391" sqref="J391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="2:6">
+    <row r="385" spans="2:9">
       <c r="B385" s="5">
         <v>384</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="2:6">
+    <row r="386" spans="2:9">
       <c r="B386" s="5">
         <v>385</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="2:6">
+    <row r="387" spans="2:9">
       <c r="B387" s="5">
         <v>386</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="2:6">
+    <row r="388" spans="2:9">
       <c r="B388" s="5">
         <v>387</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="2:6">
+    <row r="389" spans="2:9">
       <c r="B389" s="5">
         <v>388</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="2:6">
+    <row r="390" spans="2:9">
       <c r="B390" s="5">
         <v>389</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="2:6">
+    <row r="391" spans="2:9">
       <c r="B391" s="5">
         <v>390</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="2:6">
+    <row r="392" spans="2:9">
       <c r="B392" s="5">
         <v>391</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="2:6">
+    <row r="393" spans="2:9">
       <c r="B393" s="5">
         <v>392</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="2:6">
+    <row r="394" spans="2:9">
       <c r="B394" s="5">
         <v>393</v>
       </c>
@@ -4583,15 +4583,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="2:6">
+    <row r="395" spans="2:9">
       <c r="B395" s="5">
         <v>394</v>
       </c>
+      <c r="C395" t="s">
+        <v>12</v>
+      </c>
+      <c r="D395">
+        <v>12</v>
+      </c>
       <c r="E395" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="2:6">
+      <c r="I395" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="396" spans="2:9">
       <c r="B396" s="5">
         <v>395</v>
       </c>
@@ -4599,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="2:6">
+    <row r="397" spans="2:9">
       <c r="B397" s="5">
         <v>396</v>
       </c>
@@ -4607,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="2:6">
+    <row r="398" spans="2:9">
       <c r="B398" s="5">
         <v>397</v>
       </c>
@@ -4615,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="2:6">
+    <row r="399" spans="2:9">
       <c r="B399" s="5">
         <v>398</v>
       </c>
@@ -4632,7 +4641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="400" spans="2:6">
+    <row r="400" spans="2:9">
       <c r="B400" s="5">
         <v>399</v>
       </c>

--- a/ごいぱちステージ草案(ネタバレ注意（）).xlsx
+++ b/ごいぱちステージ草案(ネタバレ注意（）).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakos\Desktop\DDDDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9F600D-B30C-45F1-94A2-D8FEB1C004B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF49540-6B7E-40D4-B3DC-633D53E571E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1596" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="97">
   <si>
     <t>モード</t>
     <phoneticPr fontId="1"/>
@@ -422,6 +422,150 @@
     <t>う段</t>
     <rPh sb="1" eb="2">
       <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇っ〇い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇ーど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇ず〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇いろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AA〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABAB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ま〇〇ん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇くん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇ぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇うむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しじちぢにひびみり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇うむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>る〇〇〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇つく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー　も生成</t>
+    <rPh sb="3" eb="5">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇に〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>い段，う段</t>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わか〇〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇ー〇ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>え〇〇ん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇ける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇ける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇い〇い〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇AA〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇ろく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇っ〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>か〇〇か</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さか〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇ろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇ない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50音</t>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -825,13 +969,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J391" sqref="J391"/>
+    <sheetView tabSelected="1" topLeftCell="B72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="11.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.19921875" bestFit="1" customWidth="1"/>
@@ -1203,19 +1347,16 @@
         <v>14</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>150</v>
-      </c>
-      <c r="I19" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -1286,7 +1427,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
@@ -1422,16 +1563,40 @@
       <c r="B30" s="5">
         <v>29</v>
       </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
       <c r="E30" t="s">
         <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30">
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="5">
         <v>30</v>
       </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
       <c r="E31" t="s">
         <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31">
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="2:10">
@@ -1465,8 +1630,23 @@
       <c r="B33" s="5">
         <v>32</v>
       </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
       <c r="E33" t="s">
         <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33">
+        <v>150</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -1477,7 +1657,7 @@
         <v>18</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E34" t="s">
         <v>1</v>
@@ -1493,24 +1673,60 @@
       <c r="B35" s="5">
         <v>34</v>
       </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
       <c r="E35" t="s">
         <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35">
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="5">
         <v>35</v>
       </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
       <c r="E36" t="s">
         <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36">
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="5">
         <v>36</v>
       </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
       <c r="E37" t="s">
         <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37">
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -1537,24 +1753,60 @@
       <c r="B39" s="5">
         <v>38</v>
       </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
       <c r="E39" t="s">
         <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39">
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="5">
         <v>39</v>
       </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
       <c r="E40" t="s">
         <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40">
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="5">
         <v>40</v>
       </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
       <c r="E41" t="s">
         <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41">
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -1602,6 +1854,9 @@
       <c r="E46" t="s">
         <v>1</v>
       </c>
+      <c r="G46">
+        <v>75</v>
+      </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="5">
@@ -1747,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="2:6">
       <c r="B65" s="5">
         <v>64</v>
       </c>
@@ -1755,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:5">
+    <row r="66" spans="2:6">
       <c r="B66" s="5">
         <v>65</v>
       </c>
@@ -1763,15 +2018,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
+    <row r="67" spans="2:6">
       <c r="B67" s="5">
         <v>66</v>
       </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
       <c r="E67" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="2:5">
+      <c r="F67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
       <c r="B68" s="5">
         <v>67</v>
       </c>
@@ -1779,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:5">
+    <row r="69" spans="2:6">
       <c r="B69" s="5">
         <v>68</v>
       </c>
@@ -1787,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:5">
+    <row r="70" spans="2:6">
       <c r="B70" s="5">
         <v>69</v>
       </c>
@@ -1795,23 +2059,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:5">
+    <row r="71" spans="2:6">
       <c r="B71" s="5">
         <v>70</v>
       </c>
+      <c r="C71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
       <c r="E71" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="2:5">
+      <c r="F71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
       <c r="B72" s="5">
         <v>71</v>
       </c>
+      <c r="C72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
       <c r="E72" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:5">
+      <c r="F72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
       <c r="B73" s="5">
         <v>72</v>
       </c>
@@ -1819,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
+    <row r="74" spans="2:6">
       <c r="B74" s="5">
         <v>73</v>
       </c>
@@ -1827,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:5">
+    <row r="75" spans="2:6">
       <c r="B75" s="5">
         <v>74</v>
       </c>
@@ -1835,7 +2117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:5">
+    <row r="76" spans="2:6">
       <c r="B76" s="5">
         <v>75</v>
       </c>
@@ -1843,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:5">
+    <row r="77" spans="2:6">
       <c r="B77" s="5">
         <v>76</v>
       </c>
@@ -1851,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:5">
+    <row r="78" spans="2:6">
       <c r="B78" s="5">
         <v>77</v>
       </c>
@@ -1859,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:5">
+    <row r="79" spans="2:6">
       <c r="B79" s="5">
         <v>78</v>
       </c>
@@ -1867,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:5">
+    <row r="80" spans="2:6">
       <c r="B80" s="5">
         <v>79</v>
       </c>
@@ -2016,8 +2298,17 @@
       <c r="B95" s="5">
         <v>94</v>
       </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
       <c r="E95" t="s">
         <v>1</v>
+      </c>
+      <c r="I95" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="2:10">
@@ -2149,8 +2440,17 @@
       <c r="B110" s="5">
         <v>109</v>
       </c>
+      <c r="C110" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
       <c r="E110" t="s">
         <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="111" spans="2:10">
@@ -2189,8 +2489,17 @@
       <c r="B115" s="5">
         <v>114</v>
       </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115">
+        <v>6</v>
+      </c>
       <c r="E115" t="s">
         <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="2:7">
@@ -2353,8 +2662,20 @@
       <c r="B134" s="5">
         <v>133</v>
       </c>
+      <c r="C134" t="s">
+        <v>22</v>
+      </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
       <c r="E134" t="s">
         <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>65</v>
+      </c>
+      <c r="G134">
+        <v>240</v>
       </c>
     </row>
     <row r="135" spans="2:7">
@@ -3031,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:5">
+    <row r="209" spans="2:9">
       <c r="B209" s="5">
         <v>208</v>
       </c>
@@ -3039,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:5">
+    <row r="210" spans="2:9">
       <c r="B210" s="5">
         <v>209</v>
       </c>
@@ -3047,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:5">
+    <row r="211" spans="2:9">
       <c r="B211" s="5">
         <v>210</v>
       </c>
@@ -3055,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:5">
+    <row r="212" spans="2:9">
       <c r="B212" s="5">
         <v>211</v>
       </c>
@@ -3063,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:5">
+    <row r="213" spans="2:9">
       <c r="B213" s="5">
         <v>212</v>
       </c>
@@ -3071,15 +3392,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:5">
+    <row r="214" spans="2:9">
       <c r="B214" s="5">
         <v>213</v>
       </c>
+      <c r="C214" t="s">
+        <v>22</v>
+      </c>
+      <c r="D214">
+        <v>5</v>
+      </c>
       <c r="E214" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="2:5">
+      <c r="F214" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9">
       <c r="B215" s="5">
         <v>214</v>
       </c>
@@ -3087,15 +3417,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:5">
+    <row r="216" spans="2:9">
       <c r="B216" s="5">
         <v>215</v>
       </c>
+      <c r="C216" t="s">
+        <v>18</v>
+      </c>
+      <c r="D216">
+        <v>4</v>
+      </c>
       <c r="E216" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="2:5">
+      <c r="F216" t="s">
+        <v>70</v>
+      </c>
+      <c r="I216" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9">
       <c r="B217" s="5">
         <v>216</v>
       </c>
@@ -3103,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:5">
+    <row r="218" spans="2:9">
       <c r="B218" s="5">
         <v>217</v>
       </c>
@@ -3111,7 +3453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:5">
+    <row r="219" spans="2:9">
       <c r="B219" s="5">
         <v>218</v>
       </c>
@@ -3119,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:5">
+    <row r="220" spans="2:9">
       <c r="B220" s="5">
         <v>219</v>
       </c>
@@ -3127,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:5">
+    <row r="221" spans="2:9">
       <c r="B221" s="5">
         <v>220</v>
       </c>
@@ -3135,7 +3477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:5">
+    <row r="222" spans="2:9">
       <c r="B222" s="5">
         <v>221</v>
       </c>
@@ -3143,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:5">
+    <row r="223" spans="2:9">
       <c r="B223" s="5">
         <v>222</v>
       </c>
@@ -3151,15 +3493,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:5">
+    <row r="224" spans="2:9">
       <c r="B224" s="5">
         <v>223</v>
       </c>
+      <c r="C224" t="s">
+        <v>18</v>
+      </c>
+      <c r="D224">
+        <v>5</v>
+      </c>
       <c r="E224" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="2:5">
+      <c r="F224" t="s">
+        <v>75</v>
+      </c>
+      <c r="I224" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9">
       <c r="B225" s="5">
         <v>224</v>
       </c>
@@ -3173,7 +3527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:5">
+    <row r="226" spans="2:9">
       <c r="B226" s="5">
         <v>225</v>
       </c>
@@ -3181,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:5">
+    <row r="227" spans="2:9">
       <c r="B227" s="5">
         <v>226</v>
       </c>
@@ -3189,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:5">
+    <row r="228" spans="2:9">
       <c r="B228" s="5">
         <v>227</v>
       </c>
@@ -3197,23 +3551,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:5">
+    <row r="229" spans="2:9">
       <c r="B229" s="5">
         <v>228</v>
       </c>
+      <c r="C229" t="s">
+        <v>22</v>
+      </c>
+      <c r="D229">
+        <v>4</v>
+      </c>
       <c r="E229" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="2:5">
+      <c r="F229" t="s">
+        <v>78</v>
+      </c>
+      <c r="I229" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9">
       <c r="B230" s="5">
         <v>229</v>
       </c>
+      <c r="C230" t="s">
+        <v>22</v>
+      </c>
+      <c r="D230">
+        <v>4</v>
+      </c>
       <c r="E230" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="2:5">
+      <c r="F230" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9">
       <c r="B231" s="5">
         <v>230</v>
       </c>
@@ -3221,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:5">
+    <row r="232" spans="2:9">
       <c r="B232" s="5">
         <v>231</v>
       </c>
@@ -3229,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:5">
+    <row r="233" spans="2:9">
       <c r="B233" s="5">
         <v>232</v>
       </c>
@@ -3237,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:5">
+    <row r="234" spans="2:9">
       <c r="B234" s="5">
         <v>233</v>
       </c>
@@ -3245,7 +3620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:5">
+    <row r="235" spans="2:9">
       <c r="B235" s="5">
         <v>234</v>
       </c>
@@ -3253,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:5">
+    <row r="236" spans="2:9">
       <c r="B236" s="5">
         <v>235</v>
       </c>
@@ -3261,7 +3636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:5">
+    <row r="237" spans="2:9">
       <c r="B237" s="5">
         <v>236</v>
       </c>
@@ -3269,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:5">
+    <row r="238" spans="2:9">
       <c r="B238" s="5">
         <v>237</v>
       </c>
@@ -3277,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:5">
+    <row r="239" spans="2:9">
       <c r="B239" s="5">
         <v>238</v>
       </c>
@@ -3285,7 +3660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:5">
+    <row r="240" spans="2:9">
       <c r="B240" s="5">
         <v>239</v>
       </c>
@@ -3293,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:5">
+    <row r="241" spans="2:6">
       <c r="B241" s="5">
         <v>240</v>
       </c>
@@ -3301,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:5">
+    <row r="242" spans="2:6">
       <c r="B242" s="5">
         <v>241</v>
       </c>
@@ -3309,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:5">
+    <row r="243" spans="2:6">
       <c r="B243" s="5">
         <v>242</v>
       </c>
@@ -3317,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:5">
+    <row r="244" spans="2:6">
       <c r="B244" s="5">
         <v>243</v>
       </c>
@@ -3325,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:5">
+    <row r="245" spans="2:6">
       <c r="B245" s="5">
         <v>244</v>
       </c>
@@ -3333,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:5">
+    <row r="246" spans="2:6">
       <c r="B246" s="5">
         <v>245</v>
       </c>
@@ -3341,7 +3716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:5">
+    <row r="247" spans="2:6">
       <c r="B247" s="5">
         <v>246</v>
       </c>
@@ -3349,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="2:5">
+    <row r="248" spans="2:6">
       <c r="B248" s="5">
         <v>247</v>
       </c>
@@ -3357,15 +3732,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:5">
+    <row r="249" spans="2:6">
       <c r="B249" s="5">
         <v>248</v>
       </c>
+      <c r="C249" t="s">
+        <v>18</v>
+      </c>
+      <c r="D249">
+        <v>5</v>
+      </c>
       <c r="E249" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="2:5">
+      <c r="F249" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6">
       <c r="B250" s="5">
         <v>249</v>
       </c>
@@ -3379,7 +3763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:5">
+    <row r="251" spans="2:6">
       <c r="B251" s="5">
         <v>250</v>
       </c>
@@ -3387,7 +3771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:5">
+    <row r="252" spans="2:6">
       <c r="B252" s="5">
         <v>251</v>
       </c>
@@ -3395,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:5">
+    <row r="253" spans="2:6">
       <c r="B253" s="5">
         <v>252</v>
       </c>
@@ -3403,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:5">
+    <row r="254" spans="2:6">
       <c r="B254" s="5">
         <v>253</v>
       </c>
@@ -3411,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:5">
+    <row r="255" spans="2:6">
       <c r="B255" s="5">
         <v>254</v>
       </c>
@@ -3419,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="2:5">
+    <row r="256" spans="2:6">
       <c r="B256" s="5">
         <v>255</v>
       </c>
@@ -3427,15 +3811,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="2:5">
+    <row r="257" spans="2:9">
       <c r="B257" s="5">
         <v>256</v>
       </c>
+      <c r="C257" t="s">
+        <v>22</v>
+      </c>
+      <c r="D257">
+        <v>5</v>
+      </c>
       <c r="E257" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="2:5">
+      <c r="F257" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="258" spans="2:9">
       <c r="B258" s="5">
         <v>257</v>
       </c>
@@ -3443,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="2:5">
+    <row r="259" spans="2:9">
       <c r="B259" s="5">
         <v>258</v>
       </c>
@@ -3451,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:5">
+    <row r="260" spans="2:9">
       <c r="B260" s="5">
         <v>259</v>
       </c>
@@ -3459,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="2:5">
+    <row r="261" spans="2:9">
       <c r="B261" s="5">
         <v>260</v>
       </c>
@@ -3467,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="2:5">
+    <row r="262" spans="2:9">
       <c r="B262" s="5">
         <v>261</v>
       </c>
@@ -3475,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:5">
+    <row r="263" spans="2:9">
       <c r="B263" s="5">
         <v>262</v>
       </c>
@@ -3483,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="2:5">
+    <row r="264" spans="2:9">
       <c r="B264" s="5">
         <v>263</v>
       </c>
@@ -3491,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:5">
+    <row r="265" spans="2:9">
       <c r="B265" s="5">
         <v>264</v>
       </c>
@@ -3499,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="2:5">
+    <row r="266" spans="2:9">
       <c r="B266" s="5">
         <v>265</v>
       </c>
@@ -3507,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="2:5">
+    <row r="267" spans="2:9">
       <c r="B267" s="5">
         <v>266</v>
       </c>
@@ -3515,15 +3908,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="2:5">
+    <row r="268" spans="2:9">
       <c r="B268" s="5">
         <v>267</v>
       </c>
+      <c r="C268" t="s">
+        <v>22</v>
+      </c>
+      <c r="D268">
+        <v>5</v>
+      </c>
       <c r="E268" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="2:5">
+      <c r="F268" t="s">
+        <v>73</v>
+      </c>
+      <c r="I268" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9">
       <c r="B269" s="5">
         <v>268</v>
       </c>
@@ -3531,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="2:5">
+    <row r="270" spans="2:9">
       <c r="B270" s="5">
         <v>269</v>
       </c>
@@ -3539,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:5">
+    <row r="271" spans="2:9">
       <c r="B271" s="5">
         <v>270</v>
       </c>
@@ -3547,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:5">
+    <row r="272" spans="2:9">
       <c r="B272" s="5">
         <v>271</v>
       </c>
@@ -3555,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="2:5">
+    <row r="273" spans="2:6">
       <c r="B273" s="5">
         <v>272</v>
       </c>
@@ -3563,15 +3968,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="2:5">
+    <row r="274" spans="2:6">
       <c r="B274" s="5">
         <v>273</v>
       </c>
+      <c r="C274" t="s">
+        <v>22</v>
+      </c>
+      <c r="D274">
+        <v>5</v>
+      </c>
       <c r="E274" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="2:5">
+      <c r="F274" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6">
       <c r="B275" s="5">
         <v>274</v>
       </c>
@@ -3579,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="2:5">
+    <row r="276" spans="2:6">
       <c r="B276" s="5">
         <v>275</v>
       </c>
@@ -3587,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:5">
+    <row r="277" spans="2:6">
       <c r="B277" s="5">
         <v>276</v>
       </c>
@@ -3595,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="2:5">
+    <row r="278" spans="2:6">
       <c r="B278" s="5">
         <v>277</v>
       </c>
@@ -3603,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:5">
+    <row r="279" spans="2:6">
       <c r="B279" s="5">
         <v>278</v>
       </c>
@@ -3611,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="2:5">
+    <row r="280" spans="2:6">
       <c r="B280" s="5">
         <v>279</v>
       </c>
@@ -3619,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:5">
+    <row r="281" spans="2:6">
       <c r="B281" s="5">
         <v>280</v>
       </c>
@@ -3627,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:5">
+    <row r="282" spans="2:6">
       <c r="B282" s="5">
         <v>281</v>
       </c>
@@ -3635,7 +4049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:5">
+    <row r="283" spans="2:6">
       <c r="B283" s="5">
         <v>282</v>
       </c>
@@ -3643,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="2:5">
+    <row r="284" spans="2:6">
       <c r="B284" s="5">
         <v>283</v>
       </c>
@@ -3651,7 +4065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="2:5">
+    <row r="285" spans="2:6">
       <c r="B285" s="5">
         <v>284</v>
       </c>
@@ -3659,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:5">
+    <row r="286" spans="2:6">
       <c r="B286" s="5">
         <v>285</v>
       </c>
@@ -3667,7 +4081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:5">
+    <row r="287" spans="2:6">
       <c r="B287" s="5">
         <v>286</v>
       </c>
@@ -3675,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="2:5">
+    <row r="288" spans="2:6">
       <c r="B288" s="5">
         <v>287</v>
       </c>
@@ -4241,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="2:5">
+    <row r="353" spans="2:9">
       <c r="B353" s="5">
         <v>352</v>
       </c>
@@ -4249,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="2:5">
+    <row r="354" spans="2:9">
       <c r="B354" s="5">
         <v>353</v>
       </c>
@@ -4257,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="2:5">
+    <row r="355" spans="2:9">
       <c r="B355" s="5">
         <v>354</v>
       </c>
@@ -4265,7 +4679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="2:5">
+    <row r="356" spans="2:9">
       <c r="B356" s="5">
         <v>355</v>
       </c>
@@ -4273,7 +4687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="2:5">
+    <row r="357" spans="2:9">
       <c r="B357" s="5">
         <v>356</v>
       </c>
@@ -4281,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="2:5">
+    <row r="358" spans="2:9">
       <c r="B358" s="5">
         <v>357</v>
       </c>
@@ -4289,7 +4703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="2:5">
+    <row r="359" spans="2:9">
       <c r="B359" s="5">
         <v>358</v>
       </c>
@@ -4297,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="2:5">
+    <row r="360" spans="2:9">
       <c r="B360" s="5">
         <v>359</v>
       </c>
@@ -4305,7 +4719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="2:5">
+    <row r="361" spans="2:9">
       <c r="B361" s="5">
         <v>360</v>
       </c>
@@ -4313,7 +4727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="2:5">
+    <row r="362" spans="2:9">
       <c r="B362" s="5">
         <v>361</v>
       </c>
@@ -4321,7 +4735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="2:5">
+    <row r="363" spans="2:9">
       <c r="B363" s="5">
         <v>362</v>
       </c>
@@ -4329,15 +4743,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="2:5">
+    <row r="364" spans="2:9">
       <c r="B364" s="5">
         <v>363</v>
       </c>
+      <c r="C364" t="s">
+        <v>22</v>
+      </c>
+      <c r="D364">
+        <v>5</v>
+      </c>
       <c r="E364" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="2:5">
+      <c r="F364" t="s">
+        <v>80</v>
+      </c>
+      <c r="I364" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="365" spans="2:9">
       <c r="B365" s="5">
         <v>364</v>
       </c>
@@ -4345,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="2:5">
+    <row r="366" spans="2:9">
       <c r="B366" s="5">
         <v>365</v>
       </c>
@@ -4353,7 +4779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="2:5">
+    <row r="367" spans="2:9">
       <c r="B367" s="5">
         <v>366</v>
       </c>
@@ -4361,15 +4787,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="2:5">
+    <row r="368" spans="2:9">
       <c r="B368" s="5">
         <v>367</v>
       </c>
+      <c r="C368" t="s">
+        <v>22</v>
+      </c>
+      <c r="D368">
+        <v>5</v>
+      </c>
       <c r="E368" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="2:5">
+      <c r="F368" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6">
       <c r="B369" s="5">
         <v>368</v>
       </c>
@@ -4377,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="2:5">
+    <row r="370" spans="2:6">
       <c r="B370" s="5">
         <v>369</v>
       </c>
@@ -4385,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="2:5">
+    <row r="371" spans="2:6">
       <c r="B371" s="5">
         <v>370</v>
       </c>
@@ -4393,15 +4828,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="2:5">
+    <row r="372" spans="2:6">
       <c r="B372" s="5">
         <v>371</v>
       </c>
+      <c r="C372" t="s">
+        <v>22</v>
+      </c>
+      <c r="D372">
+        <v>5</v>
+      </c>
       <c r="E372" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" spans="2:5">
+      <c r="F372" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6">
       <c r="B373" s="5">
         <v>372</v>
       </c>
@@ -4409,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="2:5">
+    <row r="374" spans="2:6">
       <c r="B374" s="5">
         <v>373</v>
       </c>
@@ -4417,7 +4861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="2:5">
+    <row r="375" spans="2:6">
       <c r="B375" s="5">
         <v>374</v>
       </c>
@@ -4425,7 +4869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="2:5">
+    <row r="376" spans="2:6">
       <c r="B376" s="5">
         <v>375</v>
       </c>
@@ -4433,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="2:5">
+    <row r="377" spans="2:6">
       <c r="B377" s="5">
         <v>376</v>
       </c>
@@ -4441,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="2:5">
+    <row r="378" spans="2:6">
       <c r="B378" s="5">
         <v>377</v>
       </c>
@@ -4449,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="2:5">
+    <row r="379" spans="2:6">
       <c r="B379" s="5">
         <v>378</v>
       </c>
@@ -4457,7 +4901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="2:5">
+    <row r="380" spans="2:6">
       <c r="B380" s="5">
         <v>379</v>
       </c>
@@ -4465,7 +4909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="2:5">
+    <row r="381" spans="2:6">
       <c r="B381" s="5">
         <v>380</v>
       </c>
@@ -4479,7 +4923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="2:5">
+    <row r="382" spans="2:6">
       <c r="B382" s="5">
         <v>381</v>
       </c>
@@ -4487,7 +4931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="2:5">
+    <row r="383" spans="2:6">
       <c r="B383" s="5">
         <v>382</v>
       </c>
@@ -4495,7 +4939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="2:5">
+    <row r="384" spans="2:6">
       <c r="B384" s="5">
         <v>383</v>
       </c>
@@ -4547,8 +4991,17 @@
       <c r="B390" s="5">
         <v>389</v>
       </c>
+      <c r="C390" t="s">
+        <v>22</v>
+      </c>
+      <c r="D390">
+        <v>5</v>
+      </c>
       <c r="E390" t="s">
         <v>1</v>
+      </c>
+      <c r="F390" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="391" spans="2:9">
@@ -4591,7 +5044,7 @@
         <v>12</v>
       </c>
       <c r="D395">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E395" t="s">
         <v>1</v>
@@ -4620,8 +5073,17 @@
       <c r="B398" s="5">
         <v>397</v>
       </c>
+      <c r="C398" t="s">
+        <v>22</v>
+      </c>
+      <c r="D398">
+        <v>5</v>
+      </c>
       <c r="E398" t="s">
         <v>1</v>
+      </c>
+      <c r="F398" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="399" spans="2:9">
@@ -5180,7 +5642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="2:5">
+    <row r="465" spans="2:6">
       <c r="B465" s="5">
         <v>464</v>
       </c>
@@ -5188,7 +5650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="2:5">
+    <row r="466" spans="2:6">
       <c r="B466" s="5">
         <v>465</v>
       </c>
@@ -5196,7 +5658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="2:5">
+    <row r="467" spans="2:6">
       <c r="B467" s="5">
         <v>466</v>
       </c>
@@ -5204,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="2:5">
+    <row r="468" spans="2:6">
       <c r="B468" s="5">
         <v>467</v>
       </c>
@@ -5212,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="2:5">
+    <row r="469" spans="2:6">
       <c r="B469" s="5">
         <v>468</v>
       </c>
@@ -5220,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="2:5">
+    <row r="470" spans="2:6">
       <c r="B470" s="5">
         <v>469</v>
       </c>
@@ -5228,7 +5690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="2:5">
+    <row r="471" spans="2:6">
       <c r="B471" s="5">
         <v>470</v>
       </c>
@@ -5236,15 +5698,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="2:5">
+    <row r="472" spans="2:6">
       <c r="B472" s="5">
         <v>471</v>
       </c>
+      <c r="C472" t="s">
+        <v>43</v>
+      </c>
+      <c r="D472">
+        <v>5</v>
+      </c>
       <c r="E472" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="473" spans="2:5">
+      <c r="F472" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="473" spans="2:6">
       <c r="B473" s="5">
         <v>472</v>
       </c>
@@ -5258,7 +5729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="2:5">
+    <row r="474" spans="2:6">
       <c r="B474" s="5">
         <v>473</v>
       </c>
@@ -5266,7 +5737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="2:5">
+    <row r="475" spans="2:6">
       <c r="B475" s="5">
         <v>474</v>
       </c>
@@ -5274,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="2:5">
+    <row r="476" spans="2:6">
       <c r="B476" s="5">
         <v>475</v>
       </c>
@@ -5282,7 +5753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="2:5">
+    <row r="477" spans="2:6">
       <c r="B477" s="5">
         <v>476</v>
       </c>
@@ -5290,7 +5761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="2:5">
+    <row r="478" spans="2:6">
       <c r="B478" s="5">
         <v>477</v>
       </c>
@@ -5298,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="2:5">
+    <row r="479" spans="2:6">
       <c r="B479" s="5">
         <v>478</v>
       </c>
@@ -5306,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="2:5">
+    <row r="480" spans="2:6">
       <c r="B480" s="5">
         <v>479</v>
       </c>

--- a/ごいぱちステージ草案(ネタバレ注意（）).xlsx
+++ b/ごいぱちステージ草案(ネタバレ注意（）).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakos\Desktop\DDDDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF49540-6B7E-40D4-B3DC-633D53E571E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8725896-9FB1-42E6-9138-025C8565EFC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="98">
   <si>
     <t>モード</t>
     <phoneticPr fontId="1"/>
@@ -566,6 +566,16 @@
     <t>50音</t>
     <rPh sb="2" eb="3">
       <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">全消し </t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ケ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -969,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I96" sqref="I96"/>
+    <sheetView tabSelected="1" topLeftCell="A497" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J518" sqref="J518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1467,7 +1477,7 @@
         <v>32</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
@@ -2469,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:7">
+    <row r="113" spans="2:9">
       <c r="B113" s="5">
         <v>112</v>
       </c>
@@ -2477,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" spans="2:9">
       <c r="B114" s="5">
         <v>113</v>
       </c>
@@ -2485,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:7">
+    <row r="115" spans="2:9">
       <c r="B115" s="5">
         <v>114</v>
       </c>
@@ -2502,7 +2512,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="116" spans="2:7">
+    <row r="116" spans="2:9">
       <c r="B116" s="5">
         <v>115</v>
       </c>
@@ -2510,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:7">
+    <row r="117" spans="2:9">
       <c r="B117" s="5">
         <v>116</v>
       </c>
@@ -2518,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:7">
+    <row r="118" spans="2:9">
       <c r="B118" s="5">
         <v>117</v>
       </c>
@@ -2526,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:7">
+    <row r="119" spans="2:9">
       <c r="B119" s="5">
         <v>118</v>
       </c>
@@ -2534,15 +2544,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:7">
+    <row r="120" spans="2:9">
       <c r="B120" s="5">
         <v>119</v>
       </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
       <c r="E120" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="2:7">
+      <c r="G120">
+        <v>150</v>
+      </c>
+      <c r="I120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9">
       <c r="B121" s="5">
         <v>120</v>
       </c>
@@ -2550,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:7">
+    <row r="122" spans="2:9">
       <c r="B122" s="5">
         <v>121</v>
       </c>
@@ -2558,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:7">
+    <row r="123" spans="2:9">
       <c r="B123" s="5">
         <v>122</v>
       </c>
@@ -2578,7 +2600,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="124" spans="2:7">
+    <row r="124" spans="2:9">
       <c r="B124" s="5">
         <v>123</v>
       </c>
@@ -2586,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:7">
+    <row r="125" spans="2:9">
       <c r="B125" s="5">
         <v>124</v>
       </c>
@@ -2594,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:7">
+    <row r="126" spans="2:9">
       <c r="B126" s="5">
         <v>125</v>
       </c>
@@ -2602,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:7">
+    <row r="127" spans="2:9">
       <c r="B127" s="5">
         <v>126</v>
       </c>
@@ -2610,7 +2632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:7">
+    <row r="128" spans="2:9">
       <c r="B128" s="5">
         <v>127</v>
       </c>
@@ -3832,8 +3854,17 @@
       <c r="B258" s="5">
         <v>257</v>
       </c>
+      <c r="C258" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258">
+        <v>6</v>
+      </c>
       <c r="E258" t="s">
         <v>1</v>
+      </c>
+      <c r="I258" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="259" spans="2:9">
@@ -6271,7 +6302,7 @@
         <v>32</v>
       </c>
       <c r="D519" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E519" s="8" t="s">
         <v>1</v>
